--- a/PropProAssistant/Models/LicitaNet/LN_03 .xlsx
+++ b/PropProAssistant/Models/LicitaNet/LN_03 .xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54cd02815d7cac6c/Documentos/Projetos/proppro-assistant/PropProAssistant/Models/LicitaNet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DotNETProjects\proppro-assistant\PropProAssistant\Models\LicitaNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A22E832E-DFC4-4F85-859E-879597B44206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B876EA2-61DC-4EA8-9E13-8605D09D3051}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC1B7C8-23ED-4AA3-B7BE-9F64C295DD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
   <si>
     <t>LOTE</t>
   </si>
@@ -89,8 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -119,10 +118,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,23 +426,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="70" customWidth="1" style="1"/>
-    <col min="7" max="9" width="30" customWidth="1"/>
+    <col min="3" max="3" width="70" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -452,23 +451,21 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>3102298</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -477,23 +474,21 @@
       <c r="D2" s="2">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>3102299</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -502,23 +497,21 @@
       <c r="D3" s="2">
         <v>1400</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>3102300</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -527,23 +520,21 @@
       <c r="D4" s="2">
         <v>150</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>3102301</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -552,23 +543,21 @@
       <c r="D5" s="2">
         <v>150</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2">
         <v>4.42</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>3102302</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -577,23 +566,21 @@
       <c r="D6" s="2">
         <v>12</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="2">
         <v>7.15</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" ht="90">
-      <c r="A7" s="0">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>3102303</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -602,23 +589,21 @@
       <c r="D7" s="2">
         <v>378</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="2">
         <v>2.99</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" ht="90">
-      <c r="A8" s="0">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>3102304</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -627,23 +612,21 @@
       <c r="D8" s="2">
         <v>316</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="2">
         <v>0.65</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" ht="90">
-      <c r="A9" s="0">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>3102305</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -652,23 +635,21 @@
       <c r="D9" s="2">
         <v>250</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" ht="90">
-      <c r="A10" s="0">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>3102306</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -677,23 +658,21 @@
       <c r="D10" s="2">
         <v>560</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="2">
         <v>12.87</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" ht="90">
-      <c r="A11" s="0">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>3102307</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -702,23 +681,21 @@
       <c r="D11" s="2">
         <v>520</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="2">
         <v>76.7</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" ht="90">
-      <c r="A12" s="0">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>3102308</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -727,23 +704,21 @@
       <c r="D12" s="2">
         <v>315</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>3102309</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -752,23 +727,21 @@
       <c r="D13" s="2">
         <v>624</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>3102310</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -777,23 +750,21 @@
       <c r="D14" s="2">
         <v>3125</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>3102311</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -802,23 +773,21 @@
       <c r="D15" s="2">
         <v>1000</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" ht="120">
-      <c r="A16" s="0">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>3102312</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -827,23 +796,21 @@
       <c r="D16" s="2">
         <v>524</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>3102313</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -852,23 +819,21 @@
       <c r="D17" s="2">
         <v>650</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>3102314</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -877,23 +842,21 @@
       <c r="D18" s="2">
         <v>610</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>3102315</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -902,23 +865,21 @@
       <c r="D19" s="2">
         <v>4400</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="0" t="s">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" ht="30">
-      <c r="A20" s="0">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>3102316</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -927,23 +888,21 @@
       <c r="D20" s="2">
         <v>2200</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>3102317</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -952,21 +911,18 @@
       <c r="D21" s="2">
         <v>42000</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="2">
         <v>12.35</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>